--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Slamf6-Slamf6.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Slamf6-Slamf6.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>Edge total expression derived specificity</t>
+  </si>
+  <si>
+    <t>ECs</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.017688</v>
+        <v>0.0410125</v>
       </c>
       <c r="H2">
-        <v>0.053064</v>
+        <v>0.082025</v>
       </c>
       <c r="I2">
-        <v>0.002999002197651901</v>
+        <v>0.01021076775720253</v>
       </c>
       <c r="J2">
-        <v>0.002999002197651901</v>
+        <v>0.006830426470927449</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.017688</v>
+        <v>0.0410125</v>
       </c>
       <c r="N2">
-        <v>0.053064</v>
+        <v>0.082025</v>
       </c>
       <c r="O2">
-        <v>0.002999002197651901</v>
+        <v>0.01021076775720253</v>
       </c>
       <c r="P2">
-        <v>0.002999002197651901</v>
+        <v>0.006830426470927449</v>
       </c>
       <c r="Q2">
-        <v>0.0003128653439999999</v>
+        <v>0.00168202515625</v>
       </c>
       <c r="R2">
-        <v>0.002815788096</v>
+        <v>0.006728100625</v>
       </c>
       <c r="S2">
-        <v>8.99401418152093E-06</v>
+        <v>0.0001042597781915268</v>
       </c>
       <c r="T2">
-        <v>8.994014181520933E-06</v>
+        <v>4.66547257747464E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>0.0410125</v>
+      </c>
+      <c r="H3">
+        <v>0.082025</v>
+      </c>
+      <c r="I3">
+        <v>0.01021076775720253</v>
+      </c>
+      <c r="J3">
+        <v>0.006830426470927449</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G3">
+      <c r="M3">
         <v>0.017688</v>
       </c>
-      <c r="H3">
+      <c r="N3">
         <v>0.053064</v>
       </c>
-      <c r="I3">
-        <v>0.002999002197651901</v>
-      </c>
-      <c r="J3">
-        <v>0.002999002197651901</v>
-      </c>
-      <c r="K3">
-        <v>3</v>
-      </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
-      <c r="M3">
-        <v>1.937752</v>
-      </c>
-      <c r="N3">
-        <v>5.813255999999999</v>
-      </c>
       <c r="O3">
-        <v>0.3285460485359772</v>
+        <v>0.004403732035096575</v>
       </c>
       <c r="P3">
-        <v>0.3285460485359772</v>
+        <v>0.004418771719028274</v>
       </c>
       <c r="Q3">
-        <v>0.03427495737599999</v>
+        <v>0.0007254290999999999</v>
       </c>
       <c r="R3">
-        <v>0.308474616384</v>
+        <v>0.0043525746</v>
       </c>
       <c r="S3">
-        <v>0.0009853103215892438</v>
+        <v>4.496548507532399E-05</v>
       </c>
       <c r="T3">
-        <v>0.0009853103215892438</v>
+        <v>3.018209531863631E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.017688</v>
+        <v>0.0410125</v>
       </c>
       <c r="H4">
-        <v>0.053064</v>
+        <v>0.082025</v>
       </c>
       <c r="I4">
-        <v>0.002999002197651901</v>
+        <v>0.01021076775720253</v>
       </c>
       <c r="J4">
-        <v>0.002999002197651901</v>
+        <v>0.006830426470927449</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.02070766666666667</v>
+        <v>2.31046</v>
       </c>
       <c r="N4">
-        <v>0.062123</v>
+        <v>6.931379999999999</v>
       </c>
       <c r="O4">
-        <v>0.00351098698787745</v>
+        <v>0.5752287832320914</v>
       </c>
       <c r="P4">
-        <v>0.003510986987877451</v>
+        <v>0.5771933121860054</v>
       </c>
       <c r="Q4">
-        <v>0.000366277208</v>
+        <v>0.09475774074999999</v>
       </c>
       <c r="R4">
-        <v>0.003296494872</v>
+        <v>0.5685464444999999</v>
       </c>
       <c r="S4">
-        <v>1.05294576925717E-05</v>
+        <v>0.005873527512841081</v>
       </c>
       <c r="T4">
-        <v>1.05294576925717E-05</v>
+        <v>0.003942476478397582</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,31 +708,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.017688</v>
+        <v>0.0410125</v>
       </c>
       <c r="H5">
-        <v>0.053064</v>
+        <v>0.082025</v>
       </c>
       <c r="I5">
-        <v>0.002999002197651901</v>
+        <v>0.01021076775720253</v>
       </c>
       <c r="J5">
-        <v>0.002999002197651901</v>
+        <v>0.006830426470927449</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,90 +741,90 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.921814</v>
+        <v>0.5837996666666667</v>
       </c>
       <c r="N5">
-        <v>11.765442</v>
+        <v>1.751399</v>
       </c>
       <c r="O5">
-        <v>0.6649439622784934</v>
+        <v>0.1453469750214102</v>
       </c>
       <c r="P5">
-        <v>0.6649439622784935</v>
+        <v>0.1458433659342379</v>
       </c>
       <c r="Q5">
-        <v>0.06936904603199999</v>
+        <v>0.02394308382916667</v>
       </c>
       <c r="R5">
-        <v>0.624321414288</v>
+        <v>0.143658502975</v>
       </c>
       <c r="S5">
-        <v>0.001994168404188564</v>
+        <v>0.001484104206155536</v>
       </c>
       <c r="T5">
-        <v>0.001994168404188565</v>
+        <v>0.000996172387286377</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.937752</v>
+        <v>0.0410125</v>
       </c>
       <c r="H6">
-        <v>5.813255999999999</v>
+        <v>0.082025</v>
       </c>
       <c r="I6">
-        <v>0.3285460485359772</v>
+        <v>0.01021076775720253</v>
       </c>
       <c r="J6">
-        <v>0.3285460485359772</v>
+        <v>0.006830426470927449</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.017688</v>
+        <v>1.063633</v>
       </c>
       <c r="N6">
-        <v>0.053064</v>
+        <v>3.190899</v>
       </c>
       <c r="O6">
-        <v>0.002999002197651901</v>
+        <v>0.2648097419541993</v>
       </c>
       <c r="P6">
-        <v>0.002999002197651901</v>
+        <v>0.265714123689801</v>
       </c>
       <c r="Q6">
-        <v>0.03427495737599999</v>
+        <v>0.0436222484125</v>
       </c>
       <c r="R6">
-        <v>0.308474616384</v>
+        <v>0.261733490475</v>
       </c>
       <c r="S6">
-        <v>0.0009853103215892438</v>
+        <v>0.002703910774939059</v>
       </c>
       <c r="T6">
-        <v>0.0009853103215892438</v>
+        <v>0.001814940784150107</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>1.937752</v>
+        <v>0.017688</v>
       </c>
       <c r="H7">
-        <v>5.813255999999999</v>
+        <v>0.053064</v>
       </c>
       <c r="I7">
-        <v>0.3285460485359772</v>
+        <v>0.004403732035096575</v>
       </c>
       <c r="J7">
-        <v>0.3285460485359772</v>
+        <v>0.004418771719028274</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.937752</v>
+        <v>0.0410125</v>
       </c>
       <c r="N7">
-        <v>5.813255999999999</v>
+        <v>0.082025</v>
       </c>
       <c r="O7">
-        <v>0.3285460485359772</v>
+        <v>0.01021076775720253</v>
       </c>
       <c r="P7">
-        <v>0.3285460485359772</v>
+        <v>0.006830426470927449</v>
       </c>
       <c r="Q7">
-        <v>3.754882813503999</v>
+        <v>0.0007254290999999999</v>
       </c>
       <c r="R7">
-        <v>33.79394532153599</v>
+        <v>0.0043525746</v>
       </c>
       <c r="S7">
-        <v>0.1079425060086047</v>
+        <v>4.496548507532399E-05</v>
       </c>
       <c r="T7">
-        <v>0.1079425060086047</v>
+        <v>3.018209531863631E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -891,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>1.937752</v>
+        <v>0.017688</v>
       </c>
       <c r="H8">
-        <v>5.813255999999999</v>
+        <v>0.053064</v>
       </c>
       <c r="I8">
-        <v>0.3285460485359772</v>
+        <v>0.004403732035096575</v>
       </c>
       <c r="J8">
-        <v>0.3285460485359772</v>
+        <v>0.004418771719028274</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.02070766666666667</v>
+        <v>0.017688</v>
       </c>
       <c r="N8">
-        <v>0.062123</v>
+        <v>0.053064</v>
       </c>
       <c r="O8">
-        <v>0.00351098698787745</v>
+        <v>0.004403732035096575</v>
       </c>
       <c r="P8">
-        <v>0.003510986987877451</v>
+        <v>0.004418771719028274</v>
       </c>
       <c r="Q8">
-        <v>0.04012632249866666</v>
+        <v>0.0003128653439999999</v>
       </c>
       <c r="R8">
-        <v>0.361136902488</v>
+        <v>0.002815788096</v>
       </c>
       <c r="S8">
-        <v>0.001153520901328369</v>
+        <v>1.939285583693583E-05</v>
       </c>
       <c r="T8">
-        <v>0.001153520901328369</v>
+        <v>1.952554350488408E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -953,31 +956,31 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>1.937752</v>
+        <v>0.017688</v>
       </c>
       <c r="H9">
-        <v>5.813255999999999</v>
+        <v>0.053064</v>
       </c>
       <c r="I9">
-        <v>0.3285460485359772</v>
+        <v>0.004403732035096575</v>
       </c>
       <c r="J9">
-        <v>0.3285460485359772</v>
+        <v>0.004418771719028274</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -986,122 +989,122 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.921814</v>
+        <v>2.31046</v>
       </c>
       <c r="N9">
-        <v>11.765442</v>
+        <v>6.931379999999999</v>
       </c>
       <c r="O9">
-        <v>0.6649439622784934</v>
+        <v>0.5752287832320914</v>
       </c>
       <c r="P9">
-        <v>0.6649439622784935</v>
+        <v>0.5771933121860054</v>
       </c>
       <c r="Q9">
-        <v>7.599502922127999</v>
+        <v>0.04086741647999999</v>
       </c>
       <c r="R9">
-        <v>68.395526299152</v>
+        <v>0.3678067483199999</v>
       </c>
       <c r="S9">
-        <v>0.2184647113044549</v>
+        <v>0.002533153420228785</v>
       </c>
       <c r="T9">
-        <v>0.2184647113044549</v>
+        <v>0.002550485484299778</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.02070766666666667</v>
+        <v>0.017688</v>
       </c>
       <c r="H10">
-        <v>0.062123</v>
+        <v>0.053064</v>
       </c>
       <c r="I10">
-        <v>0.00351098698787745</v>
+        <v>0.004403732035096575</v>
       </c>
       <c r="J10">
-        <v>0.003510986987877451</v>
+        <v>0.004418771719028274</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.017688</v>
+        <v>0.5837996666666667</v>
       </c>
       <c r="N10">
-        <v>0.053064</v>
+        <v>1.751399</v>
       </c>
       <c r="O10">
-        <v>0.002999002197651901</v>
+        <v>0.1453469750214102</v>
       </c>
       <c r="P10">
-        <v>0.002999002197651901</v>
+        <v>0.1458433659342379</v>
       </c>
       <c r="Q10">
-        <v>0.000366277208</v>
+        <v>0.010326248504</v>
       </c>
       <c r="R10">
-        <v>0.003296494872</v>
+        <v>0.09293623653600001</v>
       </c>
       <c r="S10">
-        <v>1.05294576925717E-05</v>
+        <v>0.0006400691301061657</v>
       </c>
       <c r="T10">
-        <v>1.05294576925717E-05</v>
+        <v>0.000644448540798102</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
       <c r="E11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.02070766666666667</v>
+        <v>0.017688</v>
       </c>
       <c r="H11">
-        <v>0.062123</v>
+        <v>0.053064</v>
       </c>
       <c r="I11">
-        <v>0.00351098698787745</v>
+        <v>0.004403732035096575</v>
       </c>
       <c r="J11">
-        <v>0.003510986987877451</v>
+        <v>0.004418771719028274</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1110,28 +1113,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.937752</v>
+        <v>1.063633</v>
       </c>
       <c r="N11">
-        <v>5.813255999999999</v>
+        <v>3.190899</v>
       </c>
       <c r="O11">
-        <v>0.3285460485359772</v>
+        <v>0.2648097419541993</v>
       </c>
       <c r="P11">
-        <v>0.3285460485359772</v>
+        <v>0.265714123689801</v>
       </c>
       <c r="Q11">
-        <v>0.04012632249866666</v>
+        <v>0.018813540504</v>
       </c>
       <c r="R11">
-        <v>0.361136902488</v>
+        <v>0.169321864536</v>
       </c>
       <c r="S11">
-        <v>0.001153520901328369</v>
+        <v>0.001166151143849365</v>
       </c>
       <c r="T11">
-        <v>0.001153520901328369</v>
+        <v>0.001174130055106873</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1139,61 +1142,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.02070766666666667</v>
+        <v>2.31046</v>
       </c>
       <c r="H12">
-        <v>0.062123</v>
+        <v>6.931379999999999</v>
       </c>
       <c r="I12">
-        <v>0.00351098698787745</v>
+        <v>0.5752287832320914</v>
       </c>
       <c r="J12">
-        <v>0.003510986987877451</v>
+        <v>0.5771933121860054</v>
       </c>
       <c r="K12">
         <v>2</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.02070766666666667</v>
+        <v>0.0410125</v>
       </c>
       <c r="N12">
-        <v>0.062123</v>
+        <v>0.082025</v>
       </c>
       <c r="O12">
-        <v>0.00351098698787745</v>
+        <v>0.01021076775720253</v>
       </c>
       <c r="P12">
-        <v>0.003510986987877451</v>
+        <v>0.006830426470927449</v>
       </c>
       <c r="Q12">
-        <v>0.0004288074587777777</v>
+        <v>0.09475774074999999</v>
       </c>
       <c r="R12">
-        <v>0.003859267129</v>
+        <v>0.5685464444999999</v>
       </c>
       <c r="S12">
-        <v>1.232702962904477E-05</v>
+        <v>0.005873527512841081</v>
       </c>
       <c r="T12">
-        <v>1.232702962904477E-05</v>
+        <v>0.003942476478397582</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1201,75 +1204,75 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.02070766666666667</v>
+        <v>2.31046</v>
       </c>
       <c r="H13">
-        <v>0.062123</v>
+        <v>6.931379999999999</v>
       </c>
       <c r="I13">
-        <v>0.00351098698787745</v>
+        <v>0.5752287832320914</v>
       </c>
       <c r="J13">
-        <v>0.003510986987877451</v>
+        <v>0.5771933121860054</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>3.921814</v>
+        <v>0.017688</v>
       </c>
       <c r="N13">
-        <v>11.765442</v>
+        <v>0.053064</v>
       </c>
       <c r="O13">
-        <v>0.6649439622784934</v>
+        <v>0.004403732035096575</v>
       </c>
       <c r="P13">
-        <v>0.6649439622784935</v>
+        <v>0.004418771719028274</v>
       </c>
       <c r="Q13">
-        <v>0.08121161704066666</v>
+        <v>0.04086741647999999</v>
       </c>
       <c r="R13">
-        <v>0.730904553366</v>
+        <v>0.3678067483199999</v>
       </c>
       <c r="S13">
-        <v>0.002334609599227465</v>
+        <v>0.002533153420228785</v>
       </c>
       <c r="T13">
-        <v>0.002334609599227465</v>
+        <v>0.002550485484299778</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1278,61 +1281,61 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>3.921814</v>
+        <v>2.31046</v>
       </c>
       <c r="H14">
-        <v>11.765442</v>
+        <v>6.931379999999999</v>
       </c>
       <c r="I14">
-        <v>0.6649439622784934</v>
+        <v>0.5752287832320914</v>
       </c>
       <c r="J14">
-        <v>0.6649439622784935</v>
+        <v>0.5771933121860054</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.017688</v>
+        <v>2.31046</v>
       </c>
       <c r="N14">
-        <v>0.053064</v>
+        <v>6.931379999999999</v>
       </c>
       <c r="O14">
-        <v>0.002999002197651901</v>
+        <v>0.5752287832320914</v>
       </c>
       <c r="P14">
-        <v>0.002999002197651901</v>
+        <v>0.5771933121860054</v>
       </c>
       <c r="Q14">
-        <v>0.06936904603199999</v>
+        <v>5.338225411599998</v>
       </c>
       <c r="R14">
-        <v>0.624321414288</v>
+        <v>48.04402870439998</v>
       </c>
       <c r="S14">
-        <v>0.001994168404188564</v>
+        <v>0.3308881530586724</v>
       </c>
       <c r="T14">
-        <v>0.001994168404188565</v>
+        <v>0.3331521196322516</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
       <c r="E15">
         <v>3</v>
       </c>
@@ -1340,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>3.921814</v>
+        <v>2.31046</v>
       </c>
       <c r="H15">
-        <v>11.765442</v>
+        <v>6.931379999999999</v>
       </c>
       <c r="I15">
-        <v>0.6649439622784934</v>
+        <v>0.5752287832320914</v>
       </c>
       <c r="J15">
-        <v>0.6649439622784935</v>
+        <v>0.5771933121860054</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1358,43 +1361,43 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.937752</v>
+        <v>0.5837996666666667</v>
       </c>
       <c r="N15">
-        <v>5.813255999999999</v>
+        <v>1.751399</v>
       </c>
       <c r="O15">
-        <v>0.3285460485359772</v>
+        <v>0.1453469750214102</v>
       </c>
       <c r="P15">
-        <v>0.3285460485359772</v>
+        <v>0.1458433659342379</v>
       </c>
       <c r="Q15">
-        <v>7.599502922127999</v>
+        <v>1.348845777846666</v>
       </c>
       <c r="R15">
-        <v>68.395526299152</v>
+        <v>12.13961200062</v>
       </c>
       <c r="S15">
-        <v>0.2184647113044549</v>
+        <v>0.08360776358803094</v>
       </c>
       <c r="T15">
-        <v>0.2184647113044549</v>
+        <v>0.08417981544393842</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
       <c r="E16">
         <v>3</v>
       </c>
@@ -1402,46 +1405,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>3.921814</v>
+        <v>2.31046</v>
       </c>
       <c r="H16">
-        <v>11.765442</v>
+        <v>6.931379999999999</v>
       </c>
       <c r="I16">
-        <v>0.6649439622784934</v>
+        <v>0.5752287832320914</v>
       </c>
       <c r="J16">
-        <v>0.6649439622784935</v>
+        <v>0.5771933121860054</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.02070766666666667</v>
+        <v>1.063633</v>
       </c>
       <c r="N16">
-        <v>0.062123</v>
+        <v>3.190899</v>
       </c>
       <c r="O16">
-        <v>0.00351098698787745</v>
+        <v>0.2648097419541993</v>
       </c>
       <c r="P16">
-        <v>0.003510986987877451</v>
+        <v>0.265714123689801</v>
       </c>
       <c r="Q16">
-        <v>0.08121161704066666</v>
+        <v>2.45748150118</v>
       </c>
       <c r="R16">
-        <v>0.730904553366</v>
+        <v>22.11733351062</v>
       </c>
       <c r="S16">
-        <v>0.002334609599227465</v>
+        <v>0.1523261856523181</v>
       </c>
       <c r="T16">
-        <v>0.002334609599227465</v>
+        <v>0.1533684151471182</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1449,61 +1452,619 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.5837996666666667</v>
+      </c>
+      <c r="H17">
+        <v>1.751399</v>
+      </c>
+      <c r="I17">
+        <v>0.1453469750214102</v>
+      </c>
+      <c r="J17">
+        <v>0.1458433659342379</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.0410125</v>
+      </c>
+      <c r="N17">
+        <v>0.082025</v>
+      </c>
+      <c r="O17">
+        <v>0.01021076775720253</v>
+      </c>
+      <c r="P17">
+        <v>0.006830426470927449</v>
+      </c>
+      <c r="Q17">
+        <v>0.02394308382916667</v>
+      </c>
+      <c r="R17">
+        <v>0.143658502975</v>
+      </c>
+      <c r="S17">
+        <v>0.001484104206155536</v>
+      </c>
+      <c r="T17">
+        <v>0.000996172387286377</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.5837996666666667</v>
+      </c>
+      <c r="H18">
+        <v>1.751399</v>
+      </c>
+      <c r="I18">
+        <v>0.1453469750214102</v>
+      </c>
+      <c r="J18">
+        <v>0.1458433659342379</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M18">
+        <v>0.017688</v>
+      </c>
+      <c r="N18">
+        <v>0.053064</v>
+      </c>
+      <c r="O18">
+        <v>0.004403732035096575</v>
+      </c>
+      <c r="P18">
+        <v>0.004418771719028274</v>
+      </c>
+      <c r="Q18">
+        <v>0.010326248504</v>
+      </c>
+      <c r="R18">
+        <v>0.09293623653600001</v>
+      </c>
+      <c r="S18">
+        <v>0.0006400691301061657</v>
+      </c>
+      <c r="T18">
+        <v>0.000644448540798102</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.5837996666666667</v>
+      </c>
+      <c r="H19">
+        <v>1.751399</v>
+      </c>
+      <c r="I19">
+        <v>0.1453469750214102</v>
+      </c>
+      <c r="J19">
+        <v>0.1458433659342379</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>2.31046</v>
+      </c>
+      <c r="N19">
+        <v>6.931379999999999</v>
+      </c>
+      <c r="O19">
+        <v>0.5752287832320914</v>
+      </c>
+      <c r="P19">
+        <v>0.5771933121860054</v>
+      </c>
+      <c r="Q19">
+        <v>1.348845777846666</v>
+      </c>
+      <c r="R19">
+        <v>12.13961200062</v>
+      </c>
+      <c r="S19">
+        <v>0.08360776358803094</v>
+      </c>
+      <c r="T19">
+        <v>0.08417981544393842</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.5837996666666667</v>
+      </c>
+      <c r="H20">
+        <v>1.751399</v>
+      </c>
+      <c r="I20">
+        <v>0.1453469750214102</v>
+      </c>
+      <c r="J20">
+        <v>0.1458433659342379</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>0.5837996666666667</v>
+      </c>
+      <c r="N20">
+        <v>1.751399</v>
+      </c>
+      <c r="O20">
+        <v>0.1453469750214102</v>
+      </c>
+      <c r="P20">
+        <v>0.1458433659342379</v>
+      </c>
+      <c r="Q20">
+        <v>0.3408220508001112</v>
+      </c>
+      <c r="R20">
+        <v>3.067398457201</v>
+      </c>
+      <c r="S20">
+        <v>0.02112574314787443</v>
+      </c>
+      <c r="T20">
+        <v>0.02127028738702803</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="C17" t="s">
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.5837996666666667</v>
+      </c>
+      <c r="H21">
+        <v>1.751399</v>
+      </c>
+      <c r="I21">
+        <v>0.1453469750214102</v>
+      </c>
+      <c r="J21">
+        <v>0.1458433659342379</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>1.063633</v>
+      </c>
+      <c r="N21">
+        <v>3.190899</v>
+      </c>
+      <c r="O21">
+        <v>0.2648097419541993</v>
+      </c>
+      <c r="P21">
+        <v>0.265714123689801</v>
+      </c>
+      <c r="Q21">
+        <v>0.6209485908556668</v>
+      </c>
+      <c r="R21">
+        <v>5.588537317701</v>
+      </c>
+      <c r="S21">
+        <v>0.03848929494924307</v>
+      </c>
+      <c r="T21">
+        <v>0.03875264217518699</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
         <v>24</v>
       </c>
-      <c r="D17" t="s">
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1.063633</v>
+      </c>
+      <c r="H22">
+        <v>3.190899</v>
+      </c>
+      <c r="I22">
+        <v>0.2648097419541993</v>
+      </c>
+      <c r="J22">
+        <v>0.265714123689801</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>0.0410125</v>
+      </c>
+      <c r="N22">
+        <v>0.082025</v>
+      </c>
+      <c r="O22">
+        <v>0.01021076775720253</v>
+      </c>
+      <c r="P22">
+        <v>0.006830426470927449</v>
+      </c>
+      <c r="Q22">
+        <v>0.0436222484125</v>
+      </c>
+      <c r="R22">
+        <v>0.261733490475</v>
+      </c>
+      <c r="S22">
+        <v>0.002703910774939059</v>
+      </c>
+      <c r="T22">
+        <v>0.001814940784150107</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1.063633</v>
+      </c>
+      <c r="H23">
+        <v>3.190899</v>
+      </c>
+      <c r="I23">
+        <v>0.2648097419541993</v>
+      </c>
+      <c r="J23">
+        <v>0.265714123689801</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M23">
+        <v>0.017688</v>
+      </c>
+      <c r="N23">
+        <v>0.053064</v>
+      </c>
+      <c r="O23">
+        <v>0.004403732035096575</v>
+      </c>
+      <c r="P23">
+        <v>0.004418771719028274</v>
+      </c>
+      <c r="Q23">
+        <v>0.018813540504</v>
+      </c>
+      <c r="R23">
+        <v>0.169321864536</v>
+      </c>
+      <c r="S23">
+        <v>0.001166151143849365</v>
+      </c>
+      <c r="T23">
+        <v>0.001174130055106873</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1.063633</v>
+      </c>
+      <c r="H24">
+        <v>3.190899</v>
+      </c>
+      <c r="I24">
+        <v>0.2648097419541993</v>
+      </c>
+      <c r="J24">
+        <v>0.265714123689801</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>2.31046</v>
+      </c>
+      <c r="N24">
+        <v>6.931379999999999</v>
+      </c>
+      <c r="O24">
+        <v>0.5752287832320914</v>
+      </c>
+      <c r="P24">
+        <v>0.5771933121860054</v>
+      </c>
+      <c r="Q24">
+        <v>2.45748150118</v>
+      </c>
+      <c r="R24">
+        <v>22.11733351062</v>
+      </c>
+      <c r="S24">
+        <v>0.1523261856523181</v>
+      </c>
+      <c r="T24">
+        <v>0.1533684151471182</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" t="s">
         <v>23</v>
       </c>
-      <c r="E17">
-        <v>3</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>3.921814</v>
-      </c>
-      <c r="H17">
-        <v>11.765442</v>
-      </c>
-      <c r="I17">
-        <v>0.6649439622784934</v>
-      </c>
-      <c r="J17">
-        <v>0.6649439622784935</v>
-      </c>
-      <c r="K17">
-        <v>3</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>3.921814</v>
-      </c>
-      <c r="N17">
-        <v>11.765442</v>
-      </c>
-      <c r="O17">
-        <v>0.6649439622784934</v>
-      </c>
-      <c r="P17">
-        <v>0.6649439622784935</v>
-      </c>
-      <c r="Q17">
-        <v>15.380625050596</v>
-      </c>
-      <c r="R17">
-        <v>138.425625455364</v>
-      </c>
-      <c r="S17">
-        <v>0.4421504729706224</v>
-      </c>
-      <c r="T17">
-        <v>0.4421504729706226</v>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1.063633</v>
+      </c>
+      <c r="H25">
+        <v>3.190899</v>
+      </c>
+      <c r="I25">
+        <v>0.2648097419541993</v>
+      </c>
+      <c r="J25">
+        <v>0.265714123689801</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.5837996666666667</v>
+      </c>
+      <c r="N25">
+        <v>1.751399</v>
+      </c>
+      <c r="O25">
+        <v>0.1453469750214102</v>
+      </c>
+      <c r="P25">
+        <v>0.1458433659342379</v>
+      </c>
+      <c r="Q25">
+        <v>0.6209485908556668</v>
+      </c>
+      <c r="R25">
+        <v>5.588537317701</v>
+      </c>
+      <c r="S25">
+        <v>0.03848929494924307</v>
+      </c>
+      <c r="T25">
+        <v>0.03875264217518699</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1.063633</v>
+      </c>
+      <c r="H26">
+        <v>3.190899</v>
+      </c>
+      <c r="I26">
+        <v>0.2648097419541993</v>
+      </c>
+      <c r="J26">
+        <v>0.265714123689801</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>1.063633</v>
+      </c>
+      <c r="N26">
+        <v>3.190899</v>
+      </c>
+      <c r="O26">
+        <v>0.2648097419541993</v>
+      </c>
+      <c r="P26">
+        <v>0.265714123689801</v>
+      </c>
+      <c r="Q26">
+        <v>1.131315158689</v>
+      </c>
+      <c r="R26">
+        <v>10.181836428201</v>
+      </c>
+      <c r="S26">
+        <v>0.07012419943384961</v>
+      </c>
+      <c r="T26">
+        <v>0.07060399552823884</v>
       </c>
     </row>
   </sheetData>
